--- a/opm_hero_property/heroes/12.xlsx
+++ b/opm_hero_property/heroes/12.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>11125</v>
       </c>
       <c r="D4" t="n">
-        <v>11125</v>
+        <v>11463</v>
       </c>
       <c r="E4" t="n">
         <v>239</v>
@@ -1304,7 +1305,7 @@
         <v>12400</v>
       </c>
       <c r="D5" t="n">
-        <v>12400</v>
+        <v>13121</v>
       </c>
       <c r="E5" t="n">
         <v>358</v>
@@ -1411,7 +1412,7 @@
         <v>13900</v>
       </c>
       <c r="D6" t="n">
-        <v>13900</v>
+        <v>15071</v>
       </c>
       <c r="E6" t="n">
         <v>490</v>
@@ -1518,7 +1519,7 @@
         <v>15625</v>
       </c>
       <c r="D7" t="n">
-        <v>15625</v>
+        <v>19143</v>
       </c>
       <c r="E7" t="n">
         <v>919</v>
@@ -1625,7 +1626,7 @@
         <v>17576</v>
       </c>
       <c r="D8" t="n">
-        <v>17576</v>
+        <v>24774</v>
       </c>
       <c r="E8" t="n">
         <v>1361</v>
@@ -1732,7 +1733,7 @@
         <v>19826</v>
       </c>
       <c r="D9" t="n">
-        <v>19826</v>
+        <v>32357</v>
       </c>
       <c r="E9" t="n">
         <v>1797</v>
@@ -1839,7 +1840,7 @@
         <v>21026</v>
       </c>
       <c r="D10" t="n">
-        <v>21026</v>
+        <v>38671</v>
       </c>
       <c r="E10" t="n">
         <v>2124</v>
@@ -1946,7 +1947,7 @@
         <v>22451</v>
       </c>
       <c r="D11" t="n">
-        <v>22451</v>
+        <v>46424</v>
       </c>
       <c r="E11" t="n">
         <v>2478</v>
@@ -2053,7 +2054,7 @@
         <v>25451</v>
       </c>
       <c r="D12" t="n">
-        <v>25451</v>
+        <v>60223</v>
       </c>
       <c r="E12" t="n">
         <v>3049</v>
@@ -2160,7 +2161,7 @@
         <v>26051</v>
       </c>
       <c r="D13" t="n">
-        <v>26051</v>
+        <v>62173</v>
       </c>
       <c r="E13" t="n">
         <v>3431</v>
@@ -2267,7 +2268,7 @@
         <v>26651</v>
       </c>
       <c r="D14" t="n">
-        <v>26651</v>
+        <v>64124</v>
       </c>
       <c r="E14" t="n">
         <v>3812</v>
@@ -2374,7 +2375,7 @@
         <v>27251</v>
       </c>
       <c r="D15" t="n">
-        <v>27251</v>
+        <v>66074</v>
       </c>
       <c r="E15" t="n">
         <v>4193</v>
@@ -2481,7 +2482,7 @@
         <v>27851</v>
       </c>
       <c r="D16" t="n">
-        <v>27851</v>
+        <v>68025</v>
       </c>
       <c r="E16" t="n">
         <v>4574</v>
@@ -2588,7 +2589,7 @@
         <v>28451</v>
       </c>
       <c r="D17" t="n">
-        <v>28451</v>
+        <v>69975</v>
       </c>
       <c r="E17" t="n">
         <v>4955</v>
@@ -6534,4 +6535,2652 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>12</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>35766.362248</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4233.26684</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2553.4387166</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1240</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>12</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>48421.37123</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6495.3343744</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3714.526668</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1240</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>84309.080124</v>
+      </c>
+      <c r="U4" t="n">
+        <v>11908.4206</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7605.140868</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1240</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>12</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>84309.080124</v>
+      </c>
+      <c r="U5" t="n">
+        <v>11908.4206</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7605.140868</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1310</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>12</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>72885.93200399999</v>
+      </c>
+      <c r="U6" t="n">
+        <v>10993.6426</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6868.880028</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X6" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>12</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>299476.184084</v>
+      </c>
+      <c r="U7" t="n">
+        <v>42940.816704</v>
+      </c>
+      <c r="V7" t="n">
+        <v>32057.6333146</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1770</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>12</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>247613.241164</v>
+      </c>
+      <c r="U8" t="n">
+        <v>39083.861184</v>
+      </c>
+      <c r="V8" t="n">
+        <v>28155.3618166</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X8" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>12</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>264900.888804</v>
+      </c>
+      <c r="U9" t="n">
+        <v>40369.513024</v>
+      </c>
+      <c r="V9" t="n">
+        <v>29456.1189826</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1210</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>12</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>282188.536444</v>
+      </c>
+      <c r="U10" t="n">
+        <v>41655.164864</v>
+      </c>
+      <c r="V10" t="n">
+        <v>30756.8761486</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1490</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>12</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>299476.184084</v>
+      </c>
+      <c r="U11" t="n">
+        <v>42940.816704</v>
+      </c>
+      <c r="V11" t="n">
+        <v>32057.6333146</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1770</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>12</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>299476.184084</v>
+      </c>
+      <c r="U12" t="n">
+        <v>42940.816704</v>
+      </c>
+      <c r="V12" t="n">
+        <v>32057.6333146</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1700</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1940</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>12</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>444218.904614</v>
+      </c>
+      <c r="U13" t="n">
+        <v>63615.3213736</v>
+      </c>
+      <c r="V13" t="n">
+        <v>54489.4790672</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1840</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>12</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>444218.904614</v>
+      </c>
+      <c r="U14" t="n">
+        <v>63615.3213736</v>
+      </c>
+      <c r="V14" t="n">
+        <v>54489.4790672</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>2150</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>12</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>1090739.846331</v>
+      </c>
+      <c r="U15" t="n">
+        <v>148499.7053648</v>
+      </c>
+      <c r="V15" t="n">
+        <v>158535.169</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2190</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>2430</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>12</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5547646.455302</v>
+      </c>
+      <c r="U16" t="n">
+        <v>815880.1501932001</v>
+      </c>
+      <c r="V16" t="n">
+        <v>770043.815945</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2750</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>2990</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>12</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>9079032.897390999</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1330449.8128628</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1254553.62174</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3660</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>3900</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>12</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>228750.824881</v>
+      </c>
+      <c r="U18" t="n">
+        <v>40908.62248719999</v>
+      </c>
+      <c r="V18" t="n">
+        <v>25370.4526408</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X18" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>12</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>321031.959696</v>
+      </c>
+      <c r="U19" t="n">
+        <v>51172.4825416</v>
+      </c>
+      <c r="V19" t="n">
+        <v>36438.7360832</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1140</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1940</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>12</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>419951.098916</v>
+      </c>
+      <c r="U20" t="n">
+        <v>63382.1315244</v>
+      </c>
+      <c r="V20" t="n">
+        <v>51666.9460442</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1490</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>12</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>494048.582003</v>
+      </c>
+      <c r="U21" t="n">
+        <v>72820.9879928</v>
+      </c>
+      <c r="V21" t="n">
+        <v>62495.4305704</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>2150</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>12</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>570097.1889</v>
+      </c>
+      <c r="U22" t="n">
+        <v>85766.0654776</v>
+      </c>
+      <c r="V22" t="n">
+        <v>77541.08288500001</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2190</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>2430</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>12</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>726230.4677790001</v>
+      </c>
+      <c r="U23" t="n">
+        <v>112358.0253884</v>
+      </c>
+      <c r="V23" t="n">
+        <v>108049.342585</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2750</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>2990</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/12.xlsx
+++ b/opm_hero_property/heroes/12.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,6 +6737,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6745,31 +6785,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -6781,106 +6821,130 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>35766.362248</v>
+        <v>5682523.455302</v>
       </c>
       <c r="U2" t="n">
-        <v>4233.26684</v>
+        <v>839608.1501932001</v>
       </c>
       <c r="V2" t="n">
-        <v>2553.4387166</v>
+        <v>791883.815945</v>
       </c>
       <c r="W2" t="n">
-        <v>1300</v>
+        <v>1940</v>
       </c>
       <c r="X2" t="n">
-        <v>1240</v>
+        <v>2750</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>2990</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>400</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1600</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>81</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>11196827.491745</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>2242661.84157383</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2010530</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>16045182.63331883</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -6892,73 +6956,97 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>48421.37123</v>
+        <v>726230.4677790001</v>
       </c>
       <c r="U3" t="n">
-        <v>6495.3343744</v>
+        <v>112358.0253884</v>
       </c>
       <c r="V3" t="n">
-        <v>3714.526668</v>
+        <v>108049.342585</v>
       </c>
       <c r="W3" t="n">
-        <v>1300</v>
+        <v>1940</v>
       </c>
       <c r="X3" t="n">
-        <v>1240</v>
+        <v>2750</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="AA3" t="n">
-        <v>1600</v>
+        <v>2880</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>2990</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>1268905.936565</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>255134.77625771</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>431854.8</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2138815.56282271</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6967,16 +7055,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6985,10 +7073,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7003,10 +7091,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7017,50 +7105,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>84309.080124</v>
+        <v>7664.5208</v>
       </c>
       <c r="U4" t="n">
-        <v>11908.4206</v>
+        <v>1547.91</v>
       </c>
       <c r="V4" t="n">
-        <v>7605.140868</v>
+        <v>590.6431</v>
       </c>
       <c r="W4" t="n">
-        <v>1300</v>
+        <v>550</v>
       </c>
       <c r="X4" t="n">
-        <v>1240</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="n">
-        <v>1600</v>
+        <v>320</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7070,6 +7158,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>18971.897625</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4498.9</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23470.797625</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7078,16 +7190,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7096,13 +7208,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7114,10 +7226,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7128,59 +7240,83 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>84309.080124</v>
+        <v>20432.833</v>
       </c>
       <c r="U5" t="n">
-        <v>11908.4206</v>
+        <v>3858.4256</v>
       </c>
       <c r="V5" t="n">
-        <v>7605.140868</v>
+        <v>1791.638</v>
       </c>
       <c r="W5" t="n">
-        <v>1300</v>
+        <v>638</v>
       </c>
       <c r="X5" t="n">
-        <v>1310</v>
+        <v>160</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>640</v>
+      </c>
+      <c r="AB5" t="n">
         <v>400</v>
       </c>
-      <c r="AA5" t="n">
-        <v>1600</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1070</v>
-      </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>48147.78814</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11906.8</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>60054.58813999999</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7204,16 +7340,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7235,39 +7371,39 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>72885.93200399999</v>
+        <v>58505.1604</v>
       </c>
       <c r="U6" t="n">
-        <v>10993.6426</v>
+        <v>9623.15</v>
       </c>
       <c r="V6" t="n">
-        <v>6868.880028</v>
+        <v>5844.338</v>
       </c>
       <c r="W6" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="X6" t="n">
-        <v>470</v>
+        <v>300</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AA6" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="AB6" t="n">
-        <v>1070</v>
+        <v>750</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7282,16 +7418,40 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>115021.3389</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9157</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>163077.3389</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7300,31 +7460,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7336,10 +7496,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7350,59 +7510,83 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>299476.184084</v>
+        <v>58505.1604</v>
       </c>
       <c r="U7" t="n">
-        <v>42940.816704</v>
+        <v>9623.15</v>
       </c>
       <c r="V7" t="n">
-        <v>32057.6333146</v>
+        <v>5844.338</v>
       </c>
       <c r="W7" t="n">
-        <v>1940</v>
+        <v>900</v>
       </c>
       <c r="X7" t="n">
-        <v>1770</v>
+        <v>370</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AA7" t="n">
-        <v>2880</v>
+        <v>1200</v>
       </c>
       <c r="AB7" t="n">
-        <v>2010</v>
+        <v>820</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>115021.3389</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9395</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>163315.3389</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7411,31 +7595,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7447,10 +7631,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7461,59 +7645,83 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>247613.241164</v>
+        <v>58885.932004</v>
       </c>
       <c r="U8" t="n">
-        <v>39083.861184</v>
+        <v>9653.642599999999</v>
       </c>
       <c r="V8" t="n">
-        <v>28155.3618166</v>
+        <v>5868.880028</v>
       </c>
       <c r="W8" t="n">
-        <v>1940</v>
+        <v>900</v>
       </c>
       <c r="X8" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AA8" t="n">
-        <v>2880</v>
+        <v>1200</v>
       </c>
       <c r="AB8" t="n">
-        <v>2010</v>
+        <v>820</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>115021.3389</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>732.2872050000001</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9395</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>164047.626105</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7537,7 +7745,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7546,7 +7754,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7568,27 +7776,27 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>264900.888804</v>
+        <v>245095.4764</v>
       </c>
       <c r="U9" t="n">
-        <v>40369.513024</v>
+        <v>39112.296</v>
       </c>
       <c r="V9" t="n">
-        <v>29456.1189826</v>
+        <v>28152.2861</v>
       </c>
       <c r="W9" t="n">
         <v>1940</v>
       </c>
       <c r="X9" t="n">
-        <v>1210</v>
+        <v>930</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
@@ -7618,13 +7826,37 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>520132.313875</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>688158.963875</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7648,7 +7880,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7657,7 +7889,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -7679,27 +7911,27 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>282188.536444</v>
+        <v>246824.241164</v>
       </c>
       <c r="U10" t="n">
-        <v>41655.164864</v>
+        <v>39240.861184</v>
       </c>
       <c r="V10" t="n">
-        <v>30756.8761486</v>
+        <v>28282.3618166</v>
       </c>
       <c r="W10" t="n">
         <v>1940</v>
       </c>
       <c r="X10" t="n">
-        <v>1490</v>
+        <v>930</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
@@ -7729,13 +7961,37 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>520132.313875</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3363.79990405</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>691522.7637790501</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7759,7 +8015,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -7768,7 +8024,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -7790,27 +8046,27 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>299476.184084</v>
+        <v>264111.888804</v>
       </c>
       <c r="U11" t="n">
-        <v>42940.816704</v>
+        <v>40526.513024</v>
       </c>
       <c r="V11" t="n">
-        <v>32057.6333146</v>
+        <v>29583.1189826</v>
       </c>
       <c r="W11" t="n">
         <v>1940</v>
       </c>
       <c r="X11" t="n">
-        <v>1770</v>
+        <v>1210</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
@@ -7840,13 +8096,37 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>520132.313875</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>37463.79894455001</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>725622.76281955</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7870,13 +8150,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -7901,27 +8181,27 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>299476.184084</v>
+        <v>281399.536444</v>
       </c>
       <c r="U12" t="n">
-        <v>42940.816704</v>
+        <v>41812.164864</v>
       </c>
       <c r="V12" t="n">
-        <v>32057.6333146</v>
+        <v>30883.8761486</v>
       </c>
       <c r="W12" t="n">
         <v>1940</v>
       </c>
       <c r="X12" t="n">
-        <v>1700</v>
+        <v>1490</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
@@ -7933,7 +8213,7 @@
         <v>2880</v>
       </c>
       <c r="AB12" t="n">
-        <v>1940</v>
+        <v>2010</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -7948,7 +8228,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -7958,6 +8238,30 @@
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>520132.313875</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>71563.79798505001</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>759722.76186005</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7966,10 +8270,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -7984,13 +8288,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8002,10 +8306,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8016,23 +8320,23 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>444218.904614</v>
+        <v>298687.184084</v>
       </c>
       <c r="U13" t="n">
-        <v>63615.3213736</v>
+        <v>43097.816704</v>
       </c>
       <c r="V13" t="n">
-        <v>54489.4790672</v>
+        <v>32184.6333146</v>
       </c>
       <c r="W13" t="n">
         <v>1940</v>
       </c>
       <c r="X13" t="n">
-        <v>1840</v>
+        <v>1770</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
@@ -8044,31 +8348,55 @@
         <v>2880</v>
       </c>
       <c r="AB13" t="n">
-        <v>2080</v>
+        <v>2010</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>520132.313875</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>105663.79702555</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>793822.7609005501</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8077,10 +8405,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8095,13 +8423,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8113,10 +8441,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8127,23 +8455,23 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>444218.904614</v>
+        <v>298687.184084</v>
       </c>
       <c r="U14" t="n">
-        <v>63615.3213736</v>
+        <v>43097.816704</v>
       </c>
       <c r="V14" t="n">
-        <v>54489.4790672</v>
+        <v>32184.6333146</v>
       </c>
       <c r="W14" t="n">
         <v>1940</v>
       </c>
       <c r="X14" t="n">
-        <v>1910</v>
+        <v>1700</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
@@ -8155,31 +8483,55 @@
         <v>2880</v>
       </c>
       <c r="AB14" t="n">
-        <v>2150</v>
+        <v>1940</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>520132.313875</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>105663.79702555</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>38508</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>793584.7609005501</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8188,10 +8540,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8206,13 +8558,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8224,10 +8576,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8238,23 +8590,23 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1090739.846331</v>
+        <v>446718.904614</v>
       </c>
       <c r="U15" t="n">
-        <v>148499.7053648</v>
+        <v>64423.3213736</v>
       </c>
       <c r="V15" t="n">
-        <v>158535.169</v>
+        <v>55263.4790672</v>
       </c>
       <c r="W15" t="n">
         <v>1940</v>
       </c>
       <c r="X15" t="n">
-        <v>2190</v>
+        <v>1840</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
@@ -8266,31 +8618,55 @@
         <v>2880</v>
       </c>
       <c r="AB15" t="n">
-        <v>2430</v>
+        <v>2080</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>801290.6214600001</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>161809.40526824</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>111462</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1221941.82672824</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8299,10 +8675,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8317,13 +8693,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8335,10 +8711,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8349,23 +8725,23 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5547646.455302</v>
+        <v>446718.904614</v>
       </c>
       <c r="U16" t="n">
-        <v>815880.1501932001</v>
+        <v>64423.3213736</v>
       </c>
       <c r="V16" t="n">
-        <v>770043.815945</v>
+        <v>55263.4790672</v>
       </c>
       <c r="W16" t="n">
         <v>1940</v>
       </c>
       <c r="X16" t="n">
-        <v>2750</v>
+        <v>1910</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
@@ -8377,31 +8753,55 @@
         <v>2880</v>
       </c>
       <c r="AB16" t="n">
-        <v>2990</v>
+        <v>2150</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>801290.6214600001</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>161809.40526824</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>111700</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1222179.82672824</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8410,10 +8810,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8428,13 +8828,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8446,10 +8846,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8460,23 +8860,23 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>9079032.897390999</v>
+        <v>1128234.846331</v>
       </c>
       <c r="U17" t="n">
-        <v>1330449.8128628</v>
+        <v>155356.7053648</v>
       </c>
       <c r="V17" t="n">
-        <v>1254553.62174</v>
+        <v>165168.169</v>
       </c>
       <c r="W17" t="n">
         <v>1940</v>
       </c>
       <c r="X17" t="n">
-        <v>3660</v>
+        <v>2190</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
@@ -8488,64 +8888,88 @@
         <v>2880</v>
       </c>
       <c r="AB17" t="n">
-        <v>3900</v>
+        <v>2430</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1837316.24298</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>368577.49211812</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>688289.2</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3164040.08509812</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8557,106 +8981,130 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>228750.824881</v>
+        <v>5682523.455302</v>
       </c>
       <c r="U18" t="n">
-        <v>40908.62248719999</v>
+        <v>839608.1501932001</v>
       </c>
       <c r="V18" t="n">
-        <v>25370.4526408</v>
+        <v>791883.815945</v>
       </c>
       <c r="W18" t="n">
-        <v>1300</v>
+        <v>1940</v>
       </c>
       <c r="X18" t="n">
-        <v>470</v>
+        <v>2750</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>2990</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
         <v>400</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1600</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1070</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>256</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>11196827.491745</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>2242661.84157383</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2010530</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>16045182.63331883</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -8668,37 +9116,37 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>321031.959696</v>
+        <v>9388750.897390999</v>
       </c>
       <c r="U19" t="n">
-        <v>51172.4825416</v>
+        <v>1384482.8128628</v>
       </c>
       <c r="V19" t="n">
-        <v>36438.7360832</v>
+        <v>1303785.62174</v>
       </c>
       <c r="W19" t="n">
         <v>1940</v>
       </c>
       <c r="X19" t="n">
-        <v>1140</v>
+        <v>3660</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
@@ -8710,31 +9158,55 @@
         <v>2880</v>
       </c>
       <c r="AB19" t="n">
-        <v>1940</v>
+        <v>3900</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>18168409.05653</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3639292.57461932</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3474140.2</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>26457574.63114932</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8743,31 +9215,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -8779,73 +9251,97 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>419951.098916</v>
+        <v>214750.824881</v>
       </c>
       <c r="U20" t="n">
-        <v>63382.1315244</v>
+        <v>39568.62248719999</v>
       </c>
       <c r="V20" t="n">
-        <v>51666.9460442</v>
+        <v>24370.4526408</v>
       </c>
       <c r="W20" t="n">
-        <v>1940</v>
+        <v>900</v>
       </c>
       <c r="X20" t="n">
-        <v>1490</v>
+        <v>370</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AA20" t="n">
-        <v>2880</v>
+        <v>1200</v>
       </c>
       <c r="AB20" t="n">
-        <v>2010</v>
+        <v>820</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>549744.37762</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3515.74510728</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>32014.4</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>632709.9227272799</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8854,31 +9350,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -8890,73 +9386,97 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>494048.582003</v>
+        <v>291631.959696</v>
       </c>
       <c r="U21" t="n">
-        <v>72820.9879928</v>
+        <v>48358.4825416</v>
       </c>
       <c r="V21" t="n">
-        <v>62495.4305704</v>
+        <v>34338.7360832</v>
       </c>
       <c r="W21" t="n">
-        <v>1940</v>
+        <v>1100</v>
       </c>
       <c r="X21" t="n">
-        <v>1910</v>
+        <v>870</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="AA21" t="n">
-        <v>2880</v>
+        <v>1800</v>
       </c>
       <c r="AB21" t="n">
-        <v>2150</v>
+        <v>1265</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>651453.2886600001</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49107.75</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>46512.03305144</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>64028.8</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>830129.97171144</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8965,10 +9485,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -8980,16 +9500,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9001,37 +9521,37 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>570097.1889</v>
+        <v>419951.098916</v>
       </c>
       <c r="U22" t="n">
-        <v>85766.0654776</v>
+        <v>63382.1315244</v>
       </c>
       <c r="V22" t="n">
-        <v>77541.08288500001</v>
+        <v>51666.9460442</v>
       </c>
       <c r="W22" t="n">
         <v>1940</v>
       </c>
       <c r="X22" t="n">
-        <v>2190</v>
+        <v>1490</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
@@ -9043,31 +9563,55 @@
         <v>2880</v>
       </c>
       <c r="AB22" t="n">
-        <v>2430</v>
+        <v>2010</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>824444.6719150001</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>112727.57427351</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>91895.2</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1166609.74618851</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9076,10 +9620,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9094,13 +9638,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9112,10 +9656,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9126,23 +9670,23 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>726230.4677790001</v>
+        <v>494048.582003</v>
       </c>
       <c r="U23" t="n">
-        <v>112358.0253884</v>
+        <v>72820.9879928</v>
       </c>
       <c r="V23" t="n">
-        <v>108049.342585</v>
+        <v>62495.4305704</v>
       </c>
       <c r="W23" t="n">
         <v>1940</v>
       </c>
       <c r="X23" t="n">
-        <v>2750</v>
+        <v>1910</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
@@ -9154,31 +9698,325 @@
         <v>2880</v>
       </c>
       <c r="AB23" t="n">
-        <v>2990</v>
+        <v>2150</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>900276.19278</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>181567.68215312</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>142670</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1369037.12493312</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>12</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>570097.1889</v>
+      </c>
+      <c r="U24" t="n">
+        <v>85766.0654776</v>
+      </c>
+      <c r="V24" t="n">
+        <v>77541.08288500001</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2190</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>2430</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>1020005.866435</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>205465.15084919</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>239067.6</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1621871.26728419</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>12</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>726230.4677790001</v>
+      </c>
+      <c r="U25" t="n">
+        <v>112358.0253884</v>
+      </c>
+      <c r="V25" t="n">
+        <v>108049.342585</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2750</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>2990</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1268905.936565</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>255134.77625771</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>431854.8</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2138815.56282271</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opm_hero_property/heroes/12.xlsx
+++ b/opm_hero_property/heroes/12.xlsx
@@ -997,87 +997,87 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,51921;31,6560;41,2867</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,155765;31,0;41,0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,77882;31,0;41,0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,6265;31,791;41,396</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,18796;31,0;41,0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,9398;31,0;41,0</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>51921.74400000001</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>6560.736</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>2867.6225</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>155765.232</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>77882.61599999999</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>6265.518</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>791.28</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>396.7184999999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>18796.554</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>9398.277</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1104,87 +1104,87 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,51926;31,6561;41,2868</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,155780;31,0;41,0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,77890;31,0;41,0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,6270;31,792;41,397</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,18811;31,0;41,0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,9405;31,0;41,0</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>51926.74200000001</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>6561.744</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>2868.0605</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>155780.226</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>77890.113</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>6270.516000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>792.288</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>397.1565</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>18811.548</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>9405.773999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1211,87 +1211,87 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,55324;31,7289;41,3274</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,165973;31,0;41,0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,82986;31,0;41,0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,6636;31,870;41,442</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,19909;31,0;41,0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,9954;31,0;41,0</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>55324.41855360001</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>7289.11995</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>3274.47887865</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>165973.2556608</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>82986.6278304</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>6636.619147200001</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>870.60015</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>442.08162345</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>19909.8574416</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>9954.928720800001</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1318,87 +1318,87 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,59176;31,8113;41,3734</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,177530;31,0;41,0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,88765;31,0;41,0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,7051;31,959;41,492</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,21153;31,0;41,0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,10576;31,0;41,0</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>59176.7890308</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>8113.34496</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>3734.97297455</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>177530.3670924</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>88765.1835462</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>7051.075806600001</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>959.2195199999999</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>492.89983615</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>21153.2274198</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>10576.6137099</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1425,87 +1425,87 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,53086;31,11353;41,4100</t>
+          <t>21,63704;31,9082;41,4276</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,53086;31,11353;41,4100</t>
+          <t>21,191112;31,0;41,0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>21,26543;31,5676;41,2050</t>
+          <t>21,95556;31,0;41,0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,6281;31,1329;41,529</t>
+          <t>21,7537;31,1063;41,552</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21,6281;31,1329;41,529</t>
+          <t>21,22613;31,0;41,0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>21,3140;31,664;41,264</t>
+          <t>21,11306;31,0;41,0</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>53086</v>
+        <v>63704.1453048</v>
       </c>
       <c r="O6" t="n">
-        <v>11353</v>
+        <v>9082.983560000001</v>
       </c>
       <c r="P6" t="n">
-        <v>4100</v>
+        <v>4276.56964705</v>
       </c>
       <c r="Q6" t="n">
-        <v>53086</v>
+        <v>191112.4359144</v>
       </c>
       <c r="R6" t="n">
-        <v>11353</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>4100</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>26543</v>
+        <v>95556.2179572</v>
       </c>
       <c r="U6" t="n">
-        <v>5676</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>6281</v>
+        <v>7537.8560796</v>
       </c>
       <c r="X6" t="n">
-        <v>1329</v>
+        <v>1063.43972</v>
       </c>
       <c r="Y6" t="n">
-        <v>529</v>
+        <v>552.67022865</v>
       </c>
       <c r="Z6" t="n">
-        <v>6281</v>
+        <v>22613.5682388</v>
       </c>
       <c r="AA6" t="n">
-        <v>1329</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>529</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>3140</v>
+        <v>11306.7841194</v>
       </c>
       <c r="AD6" t="n">
-        <v>664</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1532,87 +1532,87 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,59207;31,12749;41,5186</t>
+          <t>21,71049;31,10199;41,5408</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,59207;31,12749;41,5186</t>
+          <t>21,213147;31,0;41,0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21,29603;31,6374;41,2593</t>
+          <t>21,106573;31,0;41,0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,6946;31,1480;41,650</t>
+          <t>21,8335;31,1184;41,678</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21,6946;31,1480;41,650</t>
+          <t>21,25006;31,0;41,0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21,3473;31,740;41,325</t>
+          <t>21,12503;31,0;41,0</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>59207</v>
+        <v>71049.03200640001</v>
       </c>
       <c r="O7" t="n">
-        <v>12749</v>
+        <v>10199.51975</v>
       </c>
       <c r="P7" t="n">
-        <v>5186</v>
+        <v>5408.47824265</v>
       </c>
       <c r="Q7" t="n">
-        <v>59207</v>
+        <v>213147.0960192</v>
       </c>
       <c r="R7" t="n">
-        <v>12749</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>5186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>29603</v>
+        <v>106573.5480096</v>
       </c>
       <c r="U7" t="n">
-        <v>6374</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>2593</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>6946</v>
+        <v>8335.639972800001</v>
       </c>
       <c r="X7" t="n">
-        <v>1480</v>
+        <v>1184.74475</v>
       </c>
       <c r="Y7" t="n">
-        <v>650</v>
+        <v>678.42671545</v>
       </c>
       <c r="Z7" t="n">
-        <v>6946</v>
+        <v>25006.9199184</v>
       </c>
       <c r="AA7" t="n">
-        <v>1480</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>3473</v>
+        <v>12503.4599592</v>
       </c>
       <c r="AD7" t="n">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1639,87 +1639,87 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,67116;31,14326;41,6686</t>
+          <t>21,80540;31,11461;41,6973</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,67116;31,14326;41,6686</t>
+          <t>21,241621;31,0;41,0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>21,33558;31,7163;41,3343</t>
+          <t>21,120810;31,0;41,0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,7801;31,1651;41,816</t>
+          <t>21,9362;31,1321;41,851</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21,7801;31,1651;41,816</t>
+          <t>21,28087;31,0;41,0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21,3900;31,825;41,408</t>
+          <t>21,14043;31,0;41,0</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>67116</v>
+        <v>80540.409516</v>
       </c>
       <c r="O8" t="n">
-        <v>14326</v>
+        <v>11461.4991904</v>
       </c>
       <c r="P8" t="n">
-        <v>6686</v>
+        <v>6973.262577699999</v>
       </c>
       <c r="Q8" t="n">
-        <v>67116</v>
+        <v>241621.228548</v>
       </c>
       <c r="R8" t="n">
-        <v>14326</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>6686</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>33558</v>
+        <v>120810.614274</v>
       </c>
       <c r="U8" t="n">
-        <v>7163</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>3343</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>7801</v>
+        <v>9362.353182000001</v>
       </c>
       <c r="X8" t="n">
-        <v>1651</v>
+        <v>1321.1033248</v>
       </c>
       <c r="Y8" t="n">
-        <v>816</v>
+        <v>851.8450081</v>
       </c>
       <c r="Z8" t="n">
-        <v>7801</v>
+        <v>28087.059546</v>
       </c>
       <c r="AA8" t="n">
-        <v>1651</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>816</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>3900</v>
+        <v>14043.529773</v>
       </c>
       <c r="AD8" t="n">
-        <v>825</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1746,87 +1746,87 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,77287;31,16145;41,8706</t>
+          <t>21,92744;31,12916;41,9079</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,77287;31,16145;41,8706</t>
+          <t>21,278233;31,0;41,0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21,38643;31,8072;41,4353</t>
+          <t>21,139116;31,0;41,0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,8897;31,1846;41,1040</t>
+          <t>21,10677;31,1477;41,1084</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21,8897;31,1846;41,1040</t>
+          <t>21,32032;31,0;41,0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21,4448;31,923;41,520</t>
+          <t>21,16016;31,0;41,0</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>77287</v>
+        <v>92744.62239</v>
       </c>
       <c r="O9" t="n">
-        <v>16145</v>
+        <v>12916.0830904</v>
       </c>
       <c r="P9" t="n">
-        <v>8706</v>
+        <v>9079.90658235</v>
       </c>
       <c r="Q9" t="n">
-        <v>77287</v>
+        <v>278233.86717</v>
       </c>
       <c r="R9" t="n">
-        <v>16145</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>8706</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>38643</v>
+        <v>139116.933585</v>
       </c>
       <c r="U9" t="n">
-        <v>8072</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>4353</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>8897</v>
+        <v>10677.556155</v>
       </c>
       <c r="X9" t="n">
-        <v>1846</v>
+        <v>1477.5596248</v>
       </c>
       <c r="Y9" t="n">
-        <v>1040</v>
+        <v>1084.80250955</v>
       </c>
       <c r="Z9" t="n">
-        <v>8897</v>
+        <v>32032.668465</v>
       </c>
       <c r="AA9" t="n">
-        <v>1846</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1040</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>4448</v>
+        <v>16016.3342325</v>
       </c>
       <c r="AD9" t="n">
-        <v>923</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>520</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1853,87 +1853,87 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,84911;31,17114;41,10388</t>
+          <t>21,101893;31,13691;41,10834</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,84911;31,17114;41,10388</t>
+          <t>21,305681;31,0;41,0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21,42455;31,8557;41,5194</t>
+          <t>21,152840;31,0;41,0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,9719;31,1951;41,1226</t>
+          <t>21,11663;31,1560;41,1278</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21,9719;31,1951;41,1226</t>
+          <t>21,34990;31,0;41,0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21,4859;31,975;41,613</t>
+          <t>21,17495;31,0;41,0</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>84911</v>
+        <v>101893.9500012</v>
       </c>
       <c r="O10" t="n">
-        <v>17114</v>
+        <v>13691.7995704</v>
       </c>
       <c r="P10" t="n">
-        <v>10388</v>
+        <v>10834.00342705</v>
       </c>
       <c r="Q10" t="n">
-        <v>84911</v>
+        <v>305681.8500036</v>
       </c>
       <c r="R10" t="n">
-        <v>17114</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>10388</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>42455</v>
+        <v>152840.9250018</v>
       </c>
       <c r="U10" t="n">
-        <v>8557</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>5194</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>9719</v>
+        <v>11663.5505574</v>
       </c>
       <c r="X10" t="n">
-        <v>1951</v>
+        <v>1560.9413848</v>
       </c>
       <c r="Y10" t="n">
-        <v>1226</v>
+        <v>1278.77056865</v>
       </c>
       <c r="Z10" t="n">
-        <v>9719</v>
+        <v>34990.6516722</v>
       </c>
       <c r="AA10" t="n">
-        <v>1951</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1226</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>4859</v>
+        <v>17495.3258361</v>
       </c>
       <c r="AD10" t="n">
-        <v>975</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1960,87 +1960,87 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,94210;31,18265;41,12453</t>
+          <t>21,113052;31,14612;41,12987</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,94210;31,18265;41,12453</t>
+          <t>21,339157;31,0;41,0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>21,47105;31,9132;41,6226</t>
+          <t>21,169578;31,0;41,0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,10720;31,2074;41,1454</t>
+          <t>21,12864;31,1659;41,1516</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21,10720;31,2074;41,1454</t>
+          <t>21,38593;31,0;41,0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21,5360;31,1037;41,727</t>
+          <t>21,19296;31,0;41,0</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>94210</v>
+        <v>113052.4028256</v>
       </c>
       <c r="O11" t="n">
-        <v>18265</v>
+        <v>14612.7896404</v>
       </c>
       <c r="P11" t="n">
-        <v>12453</v>
+        <v>12987.6031852</v>
       </c>
       <c r="Q11" t="n">
-        <v>94210</v>
+        <v>339157.2084768</v>
       </c>
       <c r="R11" t="n">
-        <v>18265</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>12453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>47105</v>
+        <v>169578.6042384</v>
       </c>
       <c r="U11" t="n">
-        <v>9132</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6226</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>10720</v>
+        <v>12864.3804912</v>
       </c>
       <c r="X11" t="n">
-        <v>2074</v>
+        <v>1659.7839748</v>
       </c>
       <c r="Y11" t="n">
-        <v>1454</v>
+        <v>1516.6784556</v>
       </c>
       <c r="Z11" t="n">
-        <v>10720</v>
+        <v>38593.1414736</v>
       </c>
       <c r="AA11" t="n">
-        <v>2074</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1454</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>5360</v>
+        <v>19296.5707368</v>
       </c>
       <c r="AD11" t="n">
-        <v>1037</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2067,87 +2067,87 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,111338;31,20689;41,16128</t>
+          <t>21,133605;31,16551;41,16820</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,111338;31,20689;41,16128</t>
+          <t>21,400817;31,0;41,0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21,55669;31,10344;41,8064</t>
+          <t>21,200408;31,0;41,0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,12561;31,2334;41,1859</t>
+          <t>21,15073;31,1867;41,1939</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21,12561;31,2334;41,1859</t>
+          <t>21,45219;31,0;41,0</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21,6280;31,1167;41,929</t>
+          <t>21,22609;31,0;41,0</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>111338</v>
+        <v>133605.9234888</v>
       </c>
       <c r="O12" t="n">
-        <v>20689</v>
+        <v>16551.6188404</v>
       </c>
       <c r="P12" t="n">
-        <v>16128</v>
+        <v>16820.12717665</v>
       </c>
       <c r="Q12" t="n">
-        <v>111338</v>
+        <v>400817.7704664</v>
       </c>
       <c r="R12" t="n">
-        <v>20689</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>16128</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>55669</v>
+        <v>200408.8852332</v>
       </c>
       <c r="U12" t="n">
-        <v>10344</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>8064</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>12561</v>
+        <v>15073.2295476</v>
       </c>
       <c r="X12" t="n">
-        <v>2334</v>
+        <v>1867.7763748</v>
       </c>
       <c r="Y12" t="n">
-        <v>1859</v>
+        <v>1939.60201745</v>
       </c>
       <c r="Z12" t="n">
-        <v>12561</v>
+        <v>45219.6886428</v>
       </c>
       <c r="AA12" t="n">
-        <v>2334</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>1859</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>6280</v>
+        <v>22609.8443214</v>
       </c>
       <c r="AD12" t="n">
-        <v>1167</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2174,87 +2174,87 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,113991;31,21176;41,16649</t>
+          <t>21,136789;31,16940;41,17363</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,113991;31,21176;41,16649</t>
+          <t>21,410369;31,0;41,0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21,56995;31,10588;41,8324</t>
+          <t>21,205184;31,0;41,0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,12855;31,2388;41,1918</t>
+          <t>21,15426;31,1910;41,2000</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21,12855;31,2388;41,1918</t>
+          <t>21,46279;31,0;41,0</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>21,6427;31,1194;41,959</t>
+          <t>21,23139;31,0;41,0</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>113991</v>
+        <v>136789.7907768</v>
       </c>
       <c r="O13" t="n">
-        <v>21176</v>
+        <v>16940.8630804</v>
       </c>
       <c r="P13" t="n">
-        <v>16649</v>
+        <v>17363.22034915</v>
       </c>
       <c r="Q13" t="n">
-        <v>113991</v>
+        <v>410369.3723304</v>
       </c>
       <c r="R13" t="n">
-        <v>21176</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>16649</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>56995</v>
+        <v>205184.6861652</v>
       </c>
       <c r="U13" t="n">
-        <v>10588</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>8324</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>12855</v>
+        <v>15426.4108236</v>
       </c>
       <c r="X13" t="n">
-        <v>2388</v>
+        <v>1910.8532548</v>
       </c>
       <c r="Y13" t="n">
-        <v>1918</v>
+        <v>2000.86890995</v>
       </c>
       <c r="Z13" t="n">
-        <v>12855</v>
+        <v>46279.23247079999</v>
       </c>
       <c r="AA13" t="n">
-        <v>2388</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>1918</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>6427</v>
+        <v>23139.6162354</v>
       </c>
       <c r="AD13" t="n">
-        <v>1194</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2281,87 +2281,87 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,116640;31,21662;41,17170</t>
+          <t>21,139968;31,17330;41,17906</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,116640;31,21662;41,17170</t>
+          <t>21,419905;31,0;41,0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>21,58320;31,10831;41,8585</t>
+          <t>21,209952;31,0;41,0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,13149;31,2442;41,1977</t>
+          <t>21,15779;31,1953;41,2062</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21,13149;31,2442;41,1977</t>
+          <t>21,47337;31,0;41,0</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>21,6574;31,1221;41,988</t>
+          <t>21,23668;31,0;41,0</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>116640</v>
+        <v>139968.5066724</v>
       </c>
       <c r="O14" t="n">
-        <v>21662</v>
+        <v>17330.1073204</v>
       </c>
       <c r="P14" t="n">
-        <v>17170</v>
+        <v>17906.5910202</v>
       </c>
       <c r="Q14" t="n">
-        <v>116640</v>
+        <v>419905.5200172</v>
       </c>
       <c r="R14" t="n">
-        <v>21662</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>17170</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>58320</v>
+        <v>209952.7600086</v>
       </c>
       <c r="U14" t="n">
-        <v>10831</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>8585</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>13149</v>
+        <v>15779.0063298</v>
       </c>
       <c r="X14" t="n">
-        <v>2442</v>
+        <v>1953.9301348</v>
       </c>
       <c r="Y14" t="n">
-        <v>1977</v>
+        <v>2062.1662106</v>
       </c>
       <c r="Z14" t="n">
-        <v>13149</v>
+        <v>47337.0189894</v>
       </c>
       <c r="AA14" t="n">
-        <v>2442</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>1977</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>6574</v>
+        <v>23668.5094947</v>
       </c>
       <c r="AD14" t="n">
-        <v>1221</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2388,87 +2388,87 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,119293;31,22149;41,17691</t>
+          <t>21,143152;31,17719;41,18449</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,119293;31,22149;41,17691</t>
+          <t>21,429456;31,0;41,0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>21,59646;31,11074;41,8845</t>
+          <t>21,214728;31,0;41,0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,13443;31,2496;41,2036</t>
+          <t>21,16132;31,1997;41,2123</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21,13443;31,2496;41,2036</t>
+          <t>21,48396;31,0;41,0</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21,6721;31,1248;41,1018</t>
+          <t>21,24198;31,0;41,0</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>119293</v>
+        <v>143152.3319604</v>
       </c>
       <c r="O15" t="n">
-        <v>22149</v>
+        <v>17719.3515604</v>
       </c>
       <c r="P15" t="n">
-        <v>17691</v>
+        <v>18449.6841927</v>
       </c>
       <c r="Q15" t="n">
-        <v>119293</v>
+        <v>429456.9958812</v>
       </c>
       <c r="R15" t="n">
-        <v>22149</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>17691</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>59646</v>
+        <v>214728.4979406</v>
       </c>
       <c r="U15" t="n">
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>8845</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>13443</v>
+        <v>16132.1456058</v>
       </c>
       <c r="X15" t="n">
-        <v>2496</v>
+        <v>1997.0070148</v>
       </c>
       <c r="Y15" t="n">
-        <v>2036</v>
+        <v>2123.4331031</v>
       </c>
       <c r="Z15" t="n">
-        <v>13443</v>
+        <v>48396.4368174</v>
       </c>
       <c r="AA15" t="n">
-        <v>2496</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>2036</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>6721</v>
+        <v>24198.2184087</v>
       </c>
       <c r="AD15" t="n">
-        <v>1248</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>1018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2495,87 +2495,87 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,121946;31,22635;41,18212</t>
+          <t>21,146336;31,18108;41,18993</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,121946;31,22635;41,18212</t>
+          <t>21,439008;31,0;41,0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>21,60973;31,11317;41,9106</t>
+          <t>21,219504;31,0;41,0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,13737;31,2550;41,2094</t>
+          <t>21,16485;31,2040;41,2184</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21,13737;31,2550;41,2094</t>
+          <t>21,49455;31,0;41,0</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>21,6868;31,1275;41,1047</t>
+          <t>21,24727;31,0;41,0</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>121946</v>
+        <v>146336.1572484</v>
       </c>
       <c r="O16" t="n">
-        <v>22635</v>
+        <v>18108.5958004</v>
       </c>
       <c r="P16" t="n">
-        <v>18212</v>
+        <v>18993.05486375</v>
       </c>
       <c r="Q16" t="n">
-        <v>121946</v>
+        <v>439008.4717452</v>
       </c>
       <c r="R16" t="n">
-        <v>22635</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18212</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>60973</v>
+        <v>219504.2358726</v>
       </c>
       <c r="U16" t="n">
-        <v>11317</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>9106</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>13737</v>
+        <v>16485.2848818</v>
       </c>
       <c r="X16" t="n">
-        <v>2550</v>
+        <v>2040.0838948</v>
       </c>
       <c r="Y16" t="n">
-        <v>2094</v>
+        <v>2184.73040375</v>
       </c>
       <c r="Z16" t="n">
-        <v>13737</v>
+        <v>49455.8546454</v>
       </c>
       <c r="AA16" t="n">
-        <v>2550</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>2094</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>6868</v>
+        <v>24727.9273227</v>
       </c>
       <c r="AD16" t="n">
-        <v>1275</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>1047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2602,87 +2602,87 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,124599;31,23122;41,18733</t>
+          <t>21,149519;31,18497;41,19536</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,124599;31,23122;41,18733</t>
+          <t>21,448559;31,0;41,0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>21,62299;31,11561;41,9366</t>
+          <t>21,224279;31,0;41,0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,14032;31,2603;41,2153</t>
+          <t>21,16838;31,2083;41,2245</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>21,14032;31,2603;41,2153</t>
+          <t>21,50515;31,0;41,0</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>21,7016;31,1301;41,1076</t>
+          <t>21,25257;31,0;41,0</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>124599</v>
+        <v>149519.9825364</v>
       </c>
       <c r="O17" t="n">
-        <v>23122</v>
+        <v>18497.8400404</v>
       </c>
       <c r="P17" t="n">
-        <v>18733</v>
+        <v>19536.11153625</v>
       </c>
       <c r="Q17" t="n">
-        <v>124599</v>
+        <v>448559.9476092</v>
       </c>
       <c r="R17" t="n">
-        <v>23122</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>18733</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>62299</v>
+        <v>224279.9738046</v>
       </c>
       <c r="U17" t="n">
-        <v>11561</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>9366</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>14032</v>
+        <v>16838.4241578</v>
       </c>
       <c r="X17" t="n">
-        <v>2603</v>
+        <v>2083.1607748</v>
       </c>
       <c r="Y17" t="n">
-        <v>2153</v>
+        <v>2245.96079625</v>
       </c>
       <c r="Z17" t="n">
-        <v>14032</v>
+        <v>50515.27247340001</v>
       </c>
       <c r="AA17" t="n">
-        <v>2603</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>2153</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>7016</v>
+        <v>25257.6362367</v>
       </c>
       <c r="AD17" t="n">
-        <v>1301</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1076</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5107,141 +5107,141 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7344</v>
+        <v>8373</v>
       </c>
       <c r="C2" t="n">
-        <v>1486</v>
+        <v>1035</v>
       </c>
       <c r="D2" t="n">
-        <v>786</v>
+        <v>1095</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" t="n">
-        <v>7344</v>
+        <v>21678</v>
       </c>
       <c r="I2" t="n">
-        <v>1486</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>786</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="L2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3672</v>
+        <v>10839</v>
       </c>
       <c r="O2" t="n">
-        <v>743</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>393</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="R2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>5003</v>
+        <v>4313</v>
       </c>
       <c r="U2" t="n">
-        <v>874</v>
+        <v>575</v>
       </c>
       <c r="V2" t="n">
-        <v>727</v>
+        <v>439</v>
       </c>
       <c r="W2" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="X2" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="Y2" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z2" t="n">
-        <v>5003</v>
+        <v>11166</v>
       </c>
       <c r="AA2" t="n">
-        <v>874</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>727</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="AD2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>2501</v>
+        <v>5583</v>
       </c>
       <c r="AG2" t="n">
-        <v>437</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>21,7344;31,1486;41,786;22,40;32,40;42,40</t>
+          <t>21,8373;31,1035;41,1095;22,48;32,32;42,41</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>21,7344;31,1486;41,786;22,40;32,40;42,40</t>
+          <t>21,21678;31,0;41,0;22,144;32,0;42,0</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>21,3672;31,743;41,393;22,20;32,20;42,20</t>
+          <t>21,10839;31,0;41,0;22,72;32,0;42,0</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,4313;31,575;41,439;22,42;32,28;42,36</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,11166;31,0;41,0;22,126;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>21,2501;31,437;41,363;22,17;32,17;42,17</t>
+          <t>21,5583;31,0;41,0;22,61;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5250,141 +5250,141 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14760</v>
+        <v>16746</v>
       </c>
       <c r="C3" t="n">
-        <v>2857</v>
+        <v>2071</v>
       </c>
       <c r="D3" t="n">
-        <v>1684</v>
+        <v>2191</v>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F3" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H3" t="n">
-        <v>14760</v>
+        <v>43356</v>
       </c>
       <c r="I3" t="n">
-        <v>2857</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1684</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>288</v>
       </c>
       <c r="L3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>7380</v>
+        <v>21678</v>
       </c>
       <c r="O3" t="n">
-        <v>1428</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>842</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="R3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>5241</v>
+        <v>4961</v>
       </c>
       <c r="U3" t="n">
-        <v>915</v>
+        <v>639</v>
       </c>
       <c r="V3" t="n">
-        <v>768</v>
+        <v>545</v>
       </c>
       <c r="W3" t="n">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="X3" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Z3" t="n">
-        <v>5241</v>
+        <v>12846</v>
       </c>
       <c r="AA3" t="n">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>768</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>70</v>
+        <v>252</v>
       </c>
       <c r="AD3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>2620</v>
+        <v>6423</v>
       </c>
       <c r="AG3" t="n">
-        <v>457</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="AJ3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>21,14760;31,2857;41,1684;22,80;32,80;42,80</t>
+          <t>21,16746;31,2071;41,2191;22,96;32,64;42,83</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>21,14760;31,2857;41,1684;22,80;32,80;42,80</t>
+          <t>21,43356;31,0;41,0;22,288;32,0;42,0</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>21,7380;31,1428;41,842;22,40;32,40;42,40</t>
+          <t>21,21678;31,0;41,0;22,144;32,0;42,0</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,4961;31,639;41,545;22,84;32,56;42,73</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,12846;31,0;41,0;22,252;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>21,2620;31,457;41,384;22,35;32,35;42,35</t>
+          <t>21,6423;31,0;41,0;22,126;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5393,141 +5393,141 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>22004</v>
+        <v>25119</v>
       </c>
       <c r="C4" t="n">
-        <v>4094</v>
+        <v>3107</v>
       </c>
       <c r="D4" t="n">
-        <v>2732</v>
+        <v>3286</v>
       </c>
       <c r="E4" t="n">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="F4" t="n">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H4" t="n">
-        <v>22004</v>
+        <v>65034</v>
       </c>
       <c r="I4" t="n">
-        <v>4094</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2732</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>120</v>
+        <v>432</v>
       </c>
       <c r="L4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>11002</v>
+        <v>32517</v>
       </c>
       <c r="O4" t="n">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1366</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>216</v>
       </c>
       <c r="R4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>5490</v>
+        <v>6060</v>
       </c>
       <c r="U4" t="n">
-        <v>959</v>
+        <v>751</v>
       </c>
       <c r="V4" t="n">
-        <v>812</v>
+        <v>730</v>
       </c>
       <c r="W4" t="n">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="X4" t="n">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="Y4" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Z4" t="n">
-        <v>5490</v>
+        <v>15690</v>
       </c>
       <c r="AA4" t="n">
-        <v>959</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>812</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>105</v>
+        <v>378</v>
       </c>
       <c r="AD4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>2745</v>
+        <v>7845</v>
       </c>
       <c r="AG4" t="n">
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c r="AJ4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>21,22004;31,4094;41,2732;22,120;32,120;42,120</t>
+          <t>21,25119;31,3107;41,3286;22,144;32,96;42,125</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>21,22004;31,4094;41,2732;22,120;32,120;42,120</t>
+          <t>21,65034;31,0;41,0;22,432;32,0;42,0</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>21,11002;31,2047;41,1366;22,60;32,60;42,60</t>
+          <t>21,32517;31,0;41,0;22,216;32,0;42,0</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,6060;31,751;41,730;22,126;32,84;42,109</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,15690;31,0;41,0;22,378;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>21,2745;31,479;41,406;22,52;32,52;42,52</t>
+          <t>21,7845;31,0;41,0;22,187;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5536,141 +5536,141 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>29262</v>
+        <v>33492</v>
       </c>
       <c r="C5" t="n">
-        <v>5439</v>
+        <v>4143</v>
       </c>
       <c r="D5" t="n">
-        <v>3678</v>
+        <v>4382</v>
       </c>
       <c r="E5" t="n">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="F5" t="n">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="G5" t="n">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="H5" t="n">
-        <v>29262</v>
+        <v>86712</v>
       </c>
       <c r="I5" t="n">
-        <v>5439</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3678</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>160</v>
+        <v>576</v>
       </c>
       <c r="L5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>14631</v>
+        <v>43356</v>
       </c>
       <c r="O5" t="n">
-        <v>2719</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1839</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>80</v>
+        <v>288</v>
       </c>
       <c r="R5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>5881</v>
+        <v>6496</v>
       </c>
       <c r="U5" t="n">
-        <v>1026</v>
+        <v>804</v>
       </c>
       <c r="V5" t="n">
-        <v>883</v>
+        <v>795</v>
       </c>
       <c r="W5" t="n">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="X5" t="n">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="Y5" t="n">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Z5" t="n">
-        <v>5881</v>
+        <v>16818</v>
       </c>
       <c r="AA5" t="n">
-        <v>1026</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>883</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>140</v>
+        <v>504</v>
       </c>
       <c r="AD5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>2940</v>
+        <v>8409</v>
       </c>
       <c r="AG5" t="n">
-        <v>513</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>441</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>252</v>
       </c>
       <c r="AJ5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>21,29262;31,5439;41,3678;22,160;32,160;42,160</t>
+          <t>21,33492;31,4143;41,4382;22,192;32,128;42,167</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>21,29262;31,5439;41,3678;22,160;32,160;42,160</t>
+          <t>21,86712;31,0;41,0;22,576;32,0;42,0</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>21,14631;31,2719;41,1839;22,80;32,80;42,80</t>
+          <t>21,43356;31,0;41,0;22,288;32,0;42,0</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,6496;31,804;41,795;22,168;32,112;42,146</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,16818;31,0;41,0;22,504;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>21,2940;31,513;41,441;22,70;32,70;42,70</t>
+          <t>21,8409;31,0;41,0;22,252;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5679,141 +5679,141 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>36486</v>
+        <v>41865</v>
       </c>
       <c r="C6" t="n">
-        <v>6778</v>
+        <v>5179</v>
       </c>
       <c r="D6" t="n">
-        <v>4641</v>
+        <v>5477</v>
       </c>
       <c r="E6" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F6" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G6" t="n">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="H6" t="n">
-        <v>36486</v>
+        <v>108390</v>
       </c>
       <c r="I6" t="n">
-        <v>6778</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>4641</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>200</v>
+        <v>720</v>
       </c>
       <c r="L6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>18243</v>
+        <v>54195</v>
       </c>
       <c r="O6" t="n">
-        <v>3389</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2320</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>100</v>
+        <v>360</v>
       </c>
       <c r="R6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>6161</v>
+        <v>6959</v>
       </c>
       <c r="U6" t="n">
-        <v>1075</v>
+        <v>861</v>
       </c>
       <c r="V6" t="n">
-        <v>932</v>
+        <v>864</v>
       </c>
       <c r="W6" t="n">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="X6" t="n">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="Y6" t="n">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="Z6" t="n">
-        <v>6161</v>
+        <v>18018</v>
       </c>
       <c r="AA6" t="n">
-        <v>1075</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>932</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>175</v>
+        <v>630</v>
       </c>
       <c r="AD6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>3080</v>
+        <v>9009</v>
       </c>
       <c r="AG6" t="n">
-        <v>537</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>87</v>
+        <v>313</v>
       </c>
       <c r="AJ6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>21,36486;31,6778;41,4641;22,200;32,200;42,200</t>
+          <t>21,41865;31,5179;41,5477;22,240;32,160;42,208</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>21,36486;31,6778;41,4641;22,200;32,200;42,200</t>
+          <t>21,108390;31,0;41,0;22,720;32,0;42,0</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>21,18243;31,3389;41,2320;22,100;32,100;42,100</t>
+          <t>21,54195;31,0;41,0;22,360;32,0;42,0</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,6959;31,861;41,864;22,210;32,140;42,182</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,18018;31,0;41,0;22,630;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>21,3080;31,537;41,466;22,87;32,87;42,87</t>
+          <t>21,9009;31,0;41,0;22,313;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5822,141 +5822,141 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>42529</v>
+        <v>50238</v>
       </c>
       <c r="C7" t="n">
-        <v>7897</v>
+        <v>6214</v>
       </c>
       <c r="D7" t="n">
-        <v>6018</v>
+        <v>6573</v>
       </c>
       <c r="E7" t="n">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="F7" t="n">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="G7" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="H7" t="n">
-        <v>42529</v>
+        <v>130068</v>
       </c>
       <c r="I7" t="n">
-        <v>7897</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>6018</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>240</v>
+        <v>864</v>
       </c>
       <c r="L7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>21264</v>
+        <v>65034</v>
       </c>
       <c r="O7" t="n">
-        <v>3948</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>3009</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>120</v>
+        <v>432</v>
       </c>
       <c r="R7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>6454</v>
+        <v>7452</v>
       </c>
       <c r="U7" t="n">
-        <v>1126</v>
+        <v>922</v>
       </c>
       <c r="V7" t="n">
-        <v>984</v>
+        <v>939</v>
       </c>
       <c r="W7" t="n">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="X7" t="n">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="Y7" t="n">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="Z7" t="n">
-        <v>6454</v>
+        <v>19295</v>
       </c>
       <c r="AA7" t="n">
-        <v>1126</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>984</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>210</v>
+        <v>756</v>
       </c>
       <c r="AD7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>3227</v>
+        <v>9647</v>
       </c>
       <c r="AG7" t="n">
-        <v>563</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>105</v>
+        <v>378</v>
       </c>
       <c r="AJ7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>21,42529;31,7897;41,6018;22,240;32,240;42,240</t>
+          <t>21,50238;31,6214;41,6573;22,288;32,192;42,250</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>21,42529;31,7897;41,6018;22,240;32,240;42,240</t>
+          <t>21,130068;31,0;41,0;22,864;32,0;42,0</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>21,21264;31,3948;41,3009;22,120;32,120;42,120</t>
+          <t>21,65034;31,0;41,0;22,432;32,0;42,0</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,7452;31,922;41,939;22,252;32,168;42,219</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,19295;31,0;41,0;22,756;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>21,3227;31,563;41,492;22,105;32,105;42,105</t>
+          <t>21,9647;31,0;41,0;22,378;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5965,141 +5965,141 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>48553</v>
+        <v>58611</v>
       </c>
       <c r="C8" t="n">
-        <v>9012</v>
+        <v>7250</v>
       </c>
       <c r="D8" t="n">
-        <v>7404</v>
+        <v>7668</v>
       </c>
       <c r="E8" t="n">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="F8" t="n">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="G8" t="n">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="H8" t="n">
-        <v>48553</v>
+        <v>151746</v>
       </c>
       <c r="I8" t="n">
-        <v>9012</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7404</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>280</v>
+        <v>1008</v>
       </c>
       <c r="L8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>24276</v>
+        <v>75873</v>
       </c>
       <c r="O8" t="n">
-        <v>4506</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>3702</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>140</v>
+        <v>504</v>
       </c>
       <c r="R8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>6762</v>
+        <v>7977</v>
       </c>
       <c r="U8" t="n">
-        <v>1179</v>
+        <v>987</v>
       </c>
       <c r="V8" t="n">
-        <v>1038</v>
+        <v>1019</v>
       </c>
       <c r="W8" t="n">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="X8" t="n">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="Y8" t="n">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="Z8" t="n">
-        <v>6762</v>
+        <v>20655</v>
       </c>
       <c r="AA8" t="n">
-        <v>1179</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>1038</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>245</v>
+        <v>882</v>
       </c>
       <c r="AD8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>3381</v>
+        <v>10327</v>
       </c>
       <c r="AG8" t="n">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>519</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>122</v>
+        <v>439</v>
       </c>
       <c r="AJ8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>21,48553;31,9012;41,7404;22,280;32,280;42,280</t>
+          <t>21,58611;31,7250;41,7668;22,336;32,224;42,292</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>21,48553;31,9012;41,7404;22,280;32,280;42,280</t>
+          <t>21,151746;31,0;41,0;22,1008;32,0;42,0</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>21,24276;31,4506;41,3702;22,140;32,140;42,140</t>
+          <t>21,75873;31,0;41,0;22,504;32,0;42,0</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,7977;31,987;41,1019;22,294;32,196;42,255</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,20655;31,0;41,0;22,882;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>21,3381;31,589;41,519;22,122;32,122;42,122</t>
+          <t>21,10327;31,0;41,0;22,439;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6108,141 +6108,141 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>55034</v>
+        <v>66984</v>
       </c>
       <c r="C9" t="n">
-        <v>10212</v>
+        <v>8286</v>
       </c>
       <c r="D9" t="n">
-        <v>8630</v>
+        <v>8764</v>
       </c>
       <c r="E9" t="n">
-        <v>315</v>
+        <v>378</v>
       </c>
       <c r="F9" t="n">
-        <v>315</v>
+        <v>252</v>
       </c>
       <c r="G9" t="n">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="H9" t="n">
-        <v>55034</v>
+        <v>173424</v>
       </c>
       <c r="I9" t="n">
-        <v>10212</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>8630</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>315</v>
+        <v>1134</v>
       </c>
       <c r="L9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>27517</v>
+        <v>86712</v>
       </c>
       <c r="O9" t="n">
-        <v>5106</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>4315</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>157</v>
+        <v>565</v>
       </c>
       <c r="R9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>7353</v>
+        <v>8860</v>
       </c>
       <c r="U9" t="n">
-        <v>1283</v>
+        <v>1096</v>
       </c>
       <c r="V9" t="n">
-        <v>1144</v>
+        <v>1155</v>
       </c>
       <c r="W9" t="n">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="X9" t="n">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="Y9" t="n">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="Z9" t="n">
-        <v>7353</v>
+        <v>22940</v>
       </c>
       <c r="AA9" t="n">
-        <v>1283</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1144</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>280</v>
+        <v>1008</v>
       </c>
       <c r="AD9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>3676</v>
+        <v>11470</v>
       </c>
       <c r="AG9" t="n">
-        <v>641</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>140</v>
+        <v>504</v>
       </c>
       <c r="AJ9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>21,55034;31,10212;41,8630;22,315;32,315;42,315</t>
+          <t>21,66984;31,8286;41,8764;22,378;32,252;42,328</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>21,55034;31,10212;41,8630;22,315;32,315;42,315</t>
+          <t>21,173424;31,0;41,0;22,1134;32,0;42,0</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>21,27517;31,5106;41,4315;22,157;32,157;42,157</t>
+          <t>21,86712;31,0;41,0;22,565;32,0;42,0</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,8860;31,1096;41,1155;22,336;32,224;42,292</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,22940;31,0;41,0;22,1008;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>21,3676;31,641;41,572;22,140;32,140;42,140</t>
+          <t>21,11470;31,0;41,0;22,504;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6251,141 +6251,141 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>62465</v>
+        <v>75357</v>
       </c>
       <c r="C10" t="n">
-        <v>11591</v>
+        <v>9322</v>
       </c>
       <c r="D10" t="n">
-        <v>9505</v>
+        <v>9859</v>
       </c>
       <c r="E10" t="n">
-        <v>335</v>
+        <v>402</v>
       </c>
       <c r="F10" t="n">
-        <v>335</v>
+        <v>268</v>
       </c>
       <c r="G10" t="n">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="H10" t="n">
-        <v>62465</v>
+        <v>195102</v>
       </c>
       <c r="I10" t="n">
-        <v>11591</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>9505</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>335</v>
+        <v>1206</v>
       </c>
       <c r="L10" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>31232</v>
+        <v>97551</v>
       </c>
       <c r="O10" t="n">
-        <v>5795</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>4752</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>167</v>
+        <v>601</v>
       </c>
       <c r="R10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>7961</v>
+        <v>9594</v>
       </c>
       <c r="U10" t="n">
-        <v>1389</v>
+        <v>1186</v>
       </c>
       <c r="V10" t="n">
-        <v>1254</v>
+        <v>1266</v>
       </c>
       <c r="W10" t="n">
-        <v>315</v>
+        <v>378</v>
       </c>
       <c r="X10" t="n">
-        <v>315</v>
+        <v>252</v>
       </c>
       <c r="Y10" t="n">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="Z10" t="n">
-        <v>7961</v>
+        <v>24839</v>
       </c>
       <c r="AA10" t="n">
-        <v>1389</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1254</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>315</v>
+        <v>1134</v>
       </c>
       <c r="AD10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>3980</v>
+        <v>12419</v>
       </c>
       <c r="AG10" t="n">
-        <v>694</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>627</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>157</v>
+        <v>565</v>
       </c>
       <c r="AJ10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>21,62465;31,11591;41,9505;22,335;32,335;42,335</t>
+          <t>21,75357;31,9322;41,9859;22,402;32,268;42,349</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>21,62465;31,11591;41,9505;22,335;32,335;42,335</t>
+          <t>21,195102;31,0;41,0;22,1206;32,0;42,0</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>21,31232;31,5795;41,4752;22,167;32,167;42,167</t>
+          <t>21,97551;31,0;41,0;22,601;32,0;42,0</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,9594;31,1186;41,1266;22,378;32,252;42,328</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,24839;31,0;41,0;22,1134;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>21,3980;31,694;41,627;22,157;32,157;42,157</t>
+          <t>21,12419;31,0;41,0;22,565;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6394,141 +6394,141 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>69775</v>
+        <v>83731</v>
       </c>
       <c r="C11" t="n">
-        <v>12948</v>
+        <v>10358</v>
       </c>
       <c r="D11" t="n">
-        <v>10490</v>
+        <v>10955</v>
       </c>
       <c r="E11" t="n">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="F11" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="G11" t="n">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="H11" t="n">
-        <v>69775</v>
+        <v>216780</v>
       </c>
       <c r="I11" t="n">
-        <v>12948</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>10490</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>350</v>
+        <v>1260</v>
       </c>
       <c r="L11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>34887</v>
+        <v>108390</v>
       </c>
       <c r="O11" t="n">
-        <v>6474</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>5245</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>175</v>
+        <v>630</v>
       </c>
       <c r="R11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8582</v>
+        <v>10343</v>
       </c>
       <c r="U11" t="n">
-        <v>1497</v>
+        <v>1279</v>
       </c>
       <c r="V11" t="n">
-        <v>1368</v>
+        <v>1381</v>
       </c>
       <c r="W11" t="n">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="X11" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="Y11" t="n">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="Z11" t="n">
-        <v>8582</v>
+        <v>26779</v>
       </c>
       <c r="AA11" t="n">
-        <v>1497</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1368</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>350</v>
+        <v>1260</v>
       </c>
       <c r="AD11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>4291</v>
+        <v>13389</v>
       </c>
       <c r="AG11" t="n">
-        <v>748</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>684</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>175</v>
+        <v>630</v>
       </c>
       <c r="AJ11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>21,69775;31,12948;41,10490;22,350;32,350;42,350</t>
+          <t>21,83731;31,10358;41,10955;22,420;32,280;42,365</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>21,69775;31,12948;41,10490;22,350;32,350;42,350</t>
+          <t>21,216780;31,0;41,0;22,1260;32,0;42,0</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>21,34887;31,6474;41,5245;22,175;32,175;42,175</t>
+          <t>21,108390;31,0;41,0;22,630;32,0;42,0</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,10343;31,1279;41,1381;22,420;32,280;42,365</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,26779;31,0;41,0;22,1260;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>21,4291;31,748;41,684;22,175;32,175;42,175</t>
+          <t>21,13389;31,0;41,0;22,630;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6739,40 +6739,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -6812,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>12</v>
@@ -6839,13 +6859,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5682523.455302</v>
+        <v>6770173.4045744</v>
       </c>
       <c r="U2" t="n">
-        <v>839608.1501932001</v>
+        <v>1027015.9617776</v>
       </c>
       <c r="V2" t="n">
-        <v>791883.815945</v>
+        <v>950830.80208125</v>
       </c>
       <c r="W2" t="n">
         <v>1940</v>
@@ -6884,33 +6904,49 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,665339;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,332669;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11196827.491745</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>2242661.84157383</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2010530</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0</v>
-      </c>
       <c r="AS2" t="n">
-        <v>16045182.63331883</v>
+        <v>2906210.1993396</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1791348.65</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>607680.1701485976</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19339891.65280703</v>
       </c>
     </row>
     <row r="3">
@@ -6947,7 +6983,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>12</v>
@@ -6974,13 +7010,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>726230.4677790001</v>
+        <v>849631.0808088001</v>
       </c>
       <c r="U3" t="n">
-        <v>112358.0253884</v>
+        <v>133575.0740912</v>
       </c>
       <c r="V3" t="n">
-        <v>108049.342585</v>
+        <v>126443.95718125</v>
       </c>
       <c r="W3" t="n">
         <v>1940</v>
@@ -7019,33 +7055,49 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,77294;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,38646;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1268905.936565</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>255134.77625771</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>431854.8</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
       <c r="AS3" t="n">
-        <v>2138815.56282271</v>
+        <v>533301.2749252</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>202885.45</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>71235.3580823575</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2514382.845830268</v>
       </c>
     </row>
     <row r="4">
@@ -7082,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>12</v>
@@ -7109,13 +7161,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7664.5208</v>
+        <v>8114.5208</v>
       </c>
       <c r="U4" t="n">
-        <v>1547.91</v>
+        <v>1630.91</v>
       </c>
       <c r="V4" t="n">
-        <v>590.6431</v>
+        <v>657.6431</v>
       </c>
       <c r="W4" t="n">
         <v>550</v>
@@ -7154,25 +7206,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>18971.897625</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4498.9</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7180,7 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23470.797625</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1407.95</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>24878.747625</v>
       </c>
     </row>
     <row r="5">
@@ -7217,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>12</v>
@@ -7244,13 +7304,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>20432.833</v>
+        <v>33658.833</v>
       </c>
       <c r="U5" t="n">
-        <v>3858.4256</v>
+        <v>6312.4256</v>
       </c>
       <c r="V5" t="n">
-        <v>1791.638</v>
+        <v>3779.638</v>
       </c>
       <c r="W5" t="n">
         <v>638</v>
@@ -7289,25 +7349,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>48147.78814</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11906.8</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7315,7 +7371,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>60054.58813999999</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>41589.60000000001</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>101644.18814</v>
       </c>
     </row>
     <row r="6">
@@ -7352,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>12</v>
@@ -7379,13 +7447,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>58505.1604</v>
+        <v>115209.1604</v>
       </c>
       <c r="U6" t="n">
-        <v>9623.15</v>
+        <v>20145.15</v>
       </c>
       <c r="V6" t="n">
-        <v>5844.338</v>
+        <v>14369.338</v>
       </c>
       <c r="W6" t="n">
         <v>900</v>
@@ -7424,33 +7492,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>115021.3389</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9157</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>163077.3389</v>
+      <c r="AT6" t="n">
+        <v>178324.55</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>341401.8889</v>
       </c>
     </row>
     <row r="7">
@@ -7487,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>12</v>
@@ -7514,13 +7590,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>58505.1604</v>
+        <v>123764.93076992</v>
       </c>
       <c r="U7" t="n">
-        <v>9623.15</v>
+        <v>21204.54408</v>
       </c>
       <c r="V7" t="n">
-        <v>5844.338</v>
+        <v>15481.1083858</v>
       </c>
       <c r="W7" t="n">
         <v>900</v>
@@ -7559,33 +7635,49 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,22226;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,11113;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>115021.3389</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9395</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>163315.3389</v>
+      <c r="AT7" t="n">
+        <v>178324.55</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>22258.26924027</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>363898.15814027</v>
       </c>
     </row>
     <row r="8">
@@ -7622,7 +7714,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>12</v>
@@ -7649,13 +7741,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>58885.932004</v>
+        <v>132701.47274384</v>
       </c>
       <c r="U8" t="n">
-        <v>9653.642599999999</v>
+        <v>22295.43076</v>
       </c>
       <c r="V8" t="n">
-        <v>5868.880028</v>
+        <v>16618.8298334</v>
       </c>
       <c r="W8" t="n">
         <v>900</v>
@@ -7694,33 +7786,49 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,44452;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,22226;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>115021.3389</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>732.2872050000001</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9395</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>164047.626105</v>
+      <c r="AT8" t="n">
+        <v>178324.55</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>44531.54042489</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>386903.71652989</v>
       </c>
     </row>
     <row r="9">
@@ -7757,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>12</v>
@@ -7784,31 +7892,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>245095.4764</v>
+        <v>416479.241164</v>
       </c>
       <c r="U9" t="n">
-        <v>39112.296</v>
+        <v>69032.70896</v>
       </c>
       <c r="V9" t="n">
-        <v>28152.2861</v>
+        <v>52400.078961</v>
       </c>
       <c r="W9" t="n">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="X9" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA9" t="n">
-        <v>2880</v>
+        <v>2890</v>
       </c>
       <c r="AB9" t="n">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7829,33 +7937,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>520132.313875</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>688158.963875</v>
+        <v>43939.07313875</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>417838.75</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1205538.38701375</v>
       </c>
     </row>
     <row r="10">
@@ -7892,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>12</v>
@@ -7919,31 +8035,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>246824.241164</v>
+        <v>484701.1676489849</v>
       </c>
       <c r="U10" t="n">
-        <v>39240.861184</v>
+        <v>79551.4628376832</v>
       </c>
       <c r="V10" t="n">
-        <v>28282.3618166</v>
+        <v>60178.09246612099</v>
       </c>
       <c r="W10" t="n">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="X10" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA10" t="n">
-        <v>2880</v>
+        <v>2890</v>
       </c>
       <c r="AB10" t="n">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7964,33 +8080,53 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,24167;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,12083;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>520132.313875</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>3363.79990405</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>0</v>
-      </c>
       <c r="AS10" t="n">
-        <v>691522.7637790501</v>
+        <v>43939.07313875</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>417838.75</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>23861.3260722075</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>252647.3799191871</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1391063.292909195</v>
       </c>
     </row>
     <row r="11">
@@ -8027,7 +8163,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>12</v>
@@ -8054,31 +8190,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>264111.888804</v>
+        <v>603948.5434036289</v>
       </c>
       <c r="U11" t="n">
-        <v>40526.513024</v>
+        <v>94313.48944192</v>
       </c>
       <c r="V11" t="n">
-        <v>29583.1189826</v>
+        <v>73457.70013238065</v>
       </c>
       <c r="W11" t="n">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="X11" t="n">
-        <v>1210</v>
+        <v>1220</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA11" t="n">
-        <v>2880</v>
+        <v>2890</v>
       </c>
       <c r="AB11" t="n">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8099,33 +8235,53 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,120837;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,60418;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>520132.313875</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>37463.79894455001</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>0</v>
-      </c>
       <c r="AS11" t="n">
-        <v>725622.76281955</v>
+        <v>43939.07313875</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>417838.75</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>119383.12712956</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>420950.6832262056</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1688988.396314066</v>
       </c>
     </row>
     <row r="12">
@@ -8162,7 +8318,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>12</v>
@@ -8189,31 +8345,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>281399.536444</v>
+        <v>704013.5367110737</v>
       </c>
       <c r="U12" t="n">
-        <v>41812.164864</v>
+        <v>105042.35716976</v>
       </c>
       <c r="V12" t="n">
-        <v>30883.8761486</v>
+        <v>85664.48528322017</v>
       </c>
       <c r="W12" t="n">
-        <v>1940</v>
+        <v>1960</v>
       </c>
       <c r="X12" t="n">
-        <v>1490</v>
+        <v>1510</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="AA12" t="n">
-        <v>2880</v>
+        <v>2900</v>
       </c>
       <c r="AB12" t="n">
-        <v>2010</v>
+        <v>2090</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8234,33 +8390,53 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,120837;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,60418;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>520132.313875</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>71563.79798505001</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>0</v>
-      </c>
       <c r="AS12" t="n">
-        <v>759722.76186005</v>
+        <v>43939.07313875</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>417838.75</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>119383.12712956</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>631715.8794325737</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1933853.591560934</v>
       </c>
     </row>
     <row r="13">
@@ -8297,7 +8473,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>12</v>
@@ -8324,31 +8500,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>298687.184084</v>
+        <v>863658.5508347928</v>
       </c>
       <c r="U13" t="n">
-        <v>43097.816704</v>
+        <v>124884.825856992</v>
       </c>
       <c r="V13" t="n">
-        <v>32184.6333146</v>
+        <v>103936.0823632165</v>
       </c>
       <c r="W13" t="n">
-        <v>1940</v>
+        <v>1990</v>
       </c>
       <c r="X13" t="n">
-        <v>1770</v>
+        <v>1820</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA13" t="n">
-        <v>2880</v>
+        <v>2930</v>
       </c>
       <c r="AB13" t="n">
-        <v>2010</v>
+        <v>2210</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8369,33 +8545,53 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,238562;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,119281;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>520132.313875</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>105663.79702555</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>0</v>
-      </c>
       <c r="AS13" t="n">
-        <v>793822.7609005501</v>
+        <v>43939.07313875</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>417838.75</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>236212.9005662375</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>883227.8382309948</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2336295.322836532</v>
       </c>
     </row>
     <row r="14">
@@ -8432,7 +8628,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>12</v>
@@ -8459,31 +8655,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>298687.184084</v>
+        <v>950474.1515271168</v>
       </c>
       <c r="U14" t="n">
-        <v>43097.816704</v>
+        <v>134036.9821696</v>
       </c>
       <c r="V14" t="n">
-        <v>32184.6333146</v>
+        <v>108241.2598543155</v>
       </c>
       <c r="W14" t="n">
-        <v>1940</v>
+        <v>1990</v>
       </c>
       <c r="X14" t="n">
-        <v>1700</v>
+        <v>1750</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA14" t="n">
-        <v>2880</v>
+        <v>2930</v>
       </c>
       <c r="AB14" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8504,33 +8700,53 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,120837;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,60418;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>520132.313875</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>105663.79702555</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>38508</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>0</v>
-      </c>
       <c r="AS14" t="n">
-        <v>793584.7609005501</v>
+        <v>43701.07313875</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>417838.75</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>119383.12712956</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>1174777.861490811</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2510777.572659671</v>
       </c>
     </row>
     <row r="15">
@@ -8567,7 +8783,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>12</v>
@@ -8594,31 +8810,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>446718.904614</v>
+        <v>1500442.425681719</v>
       </c>
       <c r="U15" t="n">
-        <v>64423.3213736</v>
+        <v>223898.3348872736</v>
       </c>
       <c r="V15" t="n">
-        <v>55263.4790672</v>
+        <v>183625.1809639016</v>
       </c>
       <c r="W15" t="n">
+        <v>2040</v>
+      </c>
+      <c r="X15" t="n">
         <v>1940</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1840</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>720</v>
+        <v>820</v>
       </c>
       <c r="AA15" t="n">
-        <v>2880</v>
+        <v>2980</v>
       </c>
       <c r="AB15" t="n">
-        <v>2080</v>
+        <v>2480</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -8639,33 +8855,53 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,152451;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,76225;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>801290.6214600001</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>161809.40526824</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111462</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>0</v>
-      </c>
       <c r="AS15" t="n">
-        <v>1221941.82672824</v>
+        <v>127471.3124292</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>764512.9</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>149979.522091192</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>1962879.165697709</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4115322.726946341</v>
       </c>
     </row>
     <row r="16">
@@ -8702,7 +8938,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>12</v>
@@ -8729,31 +8965,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>446718.904614</v>
+        <v>1538726.852169784</v>
       </c>
       <c r="U16" t="n">
-        <v>64423.3213736</v>
+        <v>229320.6037274746</v>
       </c>
       <c r="V16" t="n">
-        <v>55263.4790672</v>
+        <v>188271.9171095194</v>
       </c>
       <c r="W16" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X16" t="n">
-        <v>1910</v>
+        <v>2110</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA16" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB16" t="n">
-        <v>2150</v>
+        <v>2950</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -8774,33 +9010,53 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,177859;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,88929;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>801290.6214600001</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>161809.40526824</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>111700</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>0</v>
-      </c>
       <c r="AS16" t="n">
-        <v>1222179.82672824</v>
+        <v>127709.3124292</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>764512.9</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>174982.512240304</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>2041492.989871352</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4219177.541269096</v>
       </c>
     </row>
     <row r="17">
@@ -8837,7 +9093,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>12</v>
@@ -8864,31 +9120,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1128234.846331</v>
+        <v>2820816.118498405</v>
       </c>
       <c r="U17" t="n">
-        <v>155356.7053648</v>
+        <v>403763.8741598285</v>
       </c>
       <c r="V17" t="n">
-        <v>165168.169</v>
+        <v>375386.3674144</v>
       </c>
       <c r="W17" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X17" t="n">
-        <v>2190</v>
+        <v>2390</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA17" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB17" t="n">
-        <v>2430</v>
+        <v>3230</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -8909,33 +9165,53 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,238540;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,119155;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1837316.24298</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>368577.49211812</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>688289.2</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>0</v>
-      </c>
       <c r="AS17" t="n">
-        <v>3164040.08509812</v>
+        <v>761748.8497192001</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1221517.3</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>232068.817826356</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>3090699.610190345</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7781785.462834021</v>
       </c>
     </row>
     <row r="18">
@@ -8972,7 +9248,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>12</v>
@@ -8999,31 +9275,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5682523.455302</v>
+        <v>10043915.0701612</v>
       </c>
       <c r="U18" t="n">
-        <v>839608.1501932001</v>
+        <v>1416747.445267357</v>
       </c>
       <c r="V18" t="n">
-        <v>791883.815945</v>
+        <v>1286190.580726838</v>
       </c>
       <c r="W18" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X18" t="n">
-        <v>2750</v>
+        <v>2950</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA18" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB18" t="n">
-        <v>2990</v>
+        <v>3790</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9044,33 +9320,53 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,665339;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,332669;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11196827.491745</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>2242661.84157383</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2010530</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>0</v>
-      </c>
       <c r="AS18" t="n">
-        <v>16045182.63331883</v>
+        <v>2906210.1993396</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1791348.65</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>607680.1701485976</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>7893607.628878244</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>27233499.28168527</v>
       </c>
     </row>
     <row r="19">
@@ -9107,7 +9403,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>12</v>
@@ -9134,31 +9430,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9388750.897390999</v>
+        <v>17150101.2255414</v>
       </c>
       <c r="U19" t="n">
-        <v>1384482.8128628</v>
+        <v>2530166.024664109</v>
       </c>
       <c r="V19" t="n">
-        <v>1303785.62174</v>
+        <v>2284439.64018308</v>
       </c>
       <c r="W19" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X19" t="n">
-        <v>3660</v>
+        <v>3860</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA19" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB19" t="n">
-        <v>3900</v>
+        <v>4700</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9179,33 +9475,53 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,665339;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,332669;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>18168409.05653</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>3639292.57461932</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3474140.2</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>0</v>
-      </c>
       <c r="AS19" t="n">
-        <v>26457574.63114932</v>
+        <v>6199277.8084795</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1791348.65</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>607680.1701485976</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>16183558.66699904</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>47765299.72677646</v>
       </c>
     </row>
     <row r="20">
@@ -9242,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>12</v>
@@ -9269,13 +9585,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>214750.824881</v>
+        <v>226203.62652902</v>
       </c>
       <c r="U20" t="n">
-        <v>39568.62248719999</v>
+        <v>41429.38796823999</v>
       </c>
       <c r="V20" t="n">
-        <v>24370.4526408</v>
+        <v>25865.14014528</v>
       </c>
       <c r="W20" t="n">
         <v>900</v>
@@ -9314,33 +9630,49 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,13430;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,6679;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>549744.37762</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>3515.74510728</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>32014.4</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>632709.9227272799</v>
+      <c r="AT20" t="n">
+        <v>20196.5</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>12690.036617956</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>665596.459345236</v>
       </c>
     </row>
     <row r="21">
@@ -9377,7 +9709,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>12</v>
@@ -9404,13 +9736,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>291631.959696</v>
+        <v>311575.62137024</v>
       </c>
       <c r="U21" t="n">
-        <v>48358.4825416</v>
+        <v>51692.58285544001</v>
       </c>
       <c r="V21" t="n">
-        <v>34338.7360832</v>
+        <v>37050.97786016</v>
       </c>
       <c r="W21" t="n">
         <v>1100</v>
@@ -9449,33 +9781,49 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,18193;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,9096;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>651453.2886600001</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49107.75</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>46512.03305144</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>64028.8</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>0</v>
-      </c>
       <c r="AS21" t="n">
-        <v>830129.97171144</v>
+        <v>70535.08288659999</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>35032.5</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>17005.561170656</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>888674.3157686961</v>
       </c>
     </row>
     <row r="22">
@@ -9512,7 +9860,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>12</v>
@@ -9539,31 +9887,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>419951.098916</v>
+        <v>561965.4410267932</v>
       </c>
       <c r="U22" t="n">
-        <v>63382.1315244</v>
+        <v>83383.77439952681</v>
       </c>
       <c r="V22" t="n">
-        <v>51666.9460442</v>
+        <v>68625.43101052377</v>
       </c>
       <c r="W22" t="n">
-        <v>1940</v>
+        <v>1990</v>
       </c>
       <c r="X22" t="n">
-        <v>1490</v>
+        <v>1540</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA22" t="n">
-        <v>2880</v>
+        <v>2930</v>
       </c>
       <c r="AB22" t="n">
-        <v>2010</v>
+        <v>2210</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -9584,33 +9932,53 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,34803;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,17348;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>824444.6719150001</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>112727.57427351</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>91895.2</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>0</v>
-      </c>
       <c r="AS22" t="n">
-        <v>1166609.74618851</v>
+        <v>100131.39671915</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>47318.4</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>32168.502008315</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>290413.8677780647</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1544746.71269404</v>
       </c>
     </row>
     <row r="23">
@@ -9647,7 +10015,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>12</v>
@@ -9674,31 +10042,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>494048.582003</v>
+        <v>733785.5784650461</v>
       </c>
       <c r="U23" t="n">
-        <v>72820.9879928</v>
+        <v>109604.8389594027</v>
       </c>
       <c r="V23" t="n">
-        <v>62495.4305704</v>
+        <v>91797.96837085381</v>
       </c>
       <c r="W23" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X23" t="n">
-        <v>1910</v>
+        <v>2110</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA23" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB23" t="n">
-        <v>2150</v>
+        <v>2950</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -9719,33 +10087,53 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,46172;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,23027;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>900276.19278</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>181567.68215312</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>142670</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>0</v>
-      </c>
       <c r="AS23" t="n">
-        <v>1369037.12493312</v>
+        <v>160659.0238556</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>86583.75</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>42523.032732598</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>517339.3538960157</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2033472.285417334</v>
       </c>
     </row>
     <row r="24">
@@ -9782,7 +10170,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>12</v>
@@ -9809,31 +10197,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>570097.1889</v>
+        <v>919896.0998908239</v>
       </c>
       <c r="U24" t="n">
-        <v>85766.0654776</v>
+        <v>139970.0171065195</v>
       </c>
       <c r="V24" t="n">
-        <v>77541.08288500001</v>
+        <v>121901.631767006</v>
       </c>
       <c r="W24" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X24" t="n">
-        <v>2190</v>
+        <v>2390</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA24" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB24" t="n">
-        <v>2430</v>
+        <v>3230</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -9854,33 +10242,53 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,55747;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,27873;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1020005.866435</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>205465.15084919</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>239067.6</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>0</v>
-      </c>
       <c r="AS24" t="n">
-        <v>1621871.26728419</v>
+        <v>279834.8346574</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>138348.05</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>51420.953685894</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>750743.0949586093</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2603150.600586093</v>
       </c>
     </row>
     <row r="25">
@@ -9917,7 +10325,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>12</v>
@@ -9944,31 +10352,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>726230.4677790001</v>
+        <v>1567898.280243495</v>
       </c>
       <c r="U25" t="n">
-        <v>112358.0253884</v>
+        <v>234927.4472472433</v>
       </c>
       <c r="V25" t="n">
-        <v>108049.342585</v>
+        <v>215116.6062125438</v>
       </c>
       <c r="W25" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X25" t="n">
-        <v>2750</v>
+        <v>2950</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA25" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB25" t="n">
-        <v>2990</v>
+        <v>3790</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -9989,33 +10397,53 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>21,77294;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>21,38646;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1268905.936565</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>255134.77625771</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>431854.8</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>0</v>
-      </c>
       <c r="AS25" t="n">
-        <v>2138815.56282271</v>
+        <v>533301.2749252</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>202885.45</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>71235.3580823575</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>1929866.306141332</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4444249.1519716</v>
       </c>
     </row>
   </sheetData>
